--- a/Code/Results/Cases/Case_8_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.247658527123235</v>
+        <v>1.113174164503391</v>
       </c>
       <c r="C2">
-        <v>0.3891821817909431</v>
+        <v>0.4460864057132312</v>
       </c>
       <c r="D2">
-        <v>0.09048845168209141</v>
+        <v>0.1137113214591352</v>
       </c>
       <c r="E2">
-        <v>0.1360781513617688</v>
+        <v>0.149955924839638</v>
       </c>
       <c r="F2">
-        <v>1.893441661435105</v>
+        <v>1.601196436311938</v>
       </c>
       <c r="G2">
-        <v>0.0008370709510472477</v>
+        <v>0.03288254868987828</v>
       </c>
       <c r="H2">
-        <v>0.006756910037891806</v>
+        <v>0.00302173974132014</v>
       </c>
       <c r="I2">
-        <v>0.01018470856232989</v>
+        <v>0.003891443030648034</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8913666678157739</v>
+        <v>0.6861957511857923</v>
       </c>
       <c r="L2">
-        <v>0.2134069720059841</v>
+        <v>0.2985218559027416</v>
       </c>
       <c r="M2">
-        <v>1.618470967380375</v>
+        <v>0.2196445953412685</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2182962027857656</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.554894583726366</v>
       </c>
       <c r="P2">
-        <v>1.481697004279852</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.20962959578948</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.088567432316864</v>
+        <v>0.9740185122557818</v>
       </c>
       <c r="C3">
-        <v>0.3410905501521597</v>
+        <v>0.3874911044416649</v>
       </c>
       <c r="D3">
-        <v>0.07871765157702271</v>
+        <v>0.09890434394417014</v>
       </c>
       <c r="E3">
-        <v>0.118591786663</v>
+        <v>0.1316566115083013</v>
       </c>
       <c r="F3">
-        <v>1.76792756897872</v>
+        <v>1.496051902103218</v>
       </c>
       <c r="G3">
-        <v>0.0008413384643829458</v>
+        <v>0.0397937366675587</v>
       </c>
       <c r="H3">
-        <v>0.01005525897859647</v>
+        <v>0.004971611429541833</v>
       </c>
       <c r="I3">
-        <v>0.01379265618662018</v>
+        <v>0.005546480049665625</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.851779091943051</v>
+        <v>0.6593990275894299</v>
       </c>
       <c r="L3">
-        <v>0.1865195635673302</v>
+        <v>0.2956900991318534</v>
       </c>
       <c r="M3">
-        <v>1.413812306519446</v>
+        <v>0.2037846892394342</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1925207573833703</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.357149273938433</v>
       </c>
       <c r="P3">
-        <v>1.494024064332521</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.228720462421272</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9907416373928299</v>
+        <v>0.8880303053851719</v>
       </c>
       <c r="C4">
-        <v>0.3120523667499526</v>
+        <v>0.3519615761958903</v>
       </c>
       <c r="D4">
-        <v>0.07155963605587345</v>
+        <v>0.08991042486512413</v>
       </c>
       <c r="E4">
-        <v>0.107908165512832</v>
+        <v>0.1204565553685306</v>
       </c>
       <c r="F4">
-        <v>1.69135200946576</v>
+        <v>1.431430116267805</v>
       </c>
       <c r="G4">
-        <v>0.0008440472274014215</v>
+        <v>0.04451840084635883</v>
       </c>
       <c r="H4">
-        <v>0.01249045011756783</v>
+        <v>0.006464182813492758</v>
       </c>
       <c r="I4">
-        <v>0.01640668712863791</v>
+        <v>0.006808622676077292</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8275534846845432</v>
+        <v>0.6427527270732298</v>
       </c>
       <c r="L4">
-        <v>0.1700476821111607</v>
+        <v>0.2936788510731958</v>
       </c>
       <c r="M4">
-        <v>1.288528421469465</v>
+        <v>0.1946970066832634</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1766815260544163</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.235636355551009</v>
       </c>
       <c r="P4">
-        <v>1.501745010625079</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.240438465123155</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9497784187560114</v>
+        <v>0.8519029108414031</v>
       </c>
       <c r="C5">
-        <v>0.3007340627854092</v>
+        <v>0.3379907147128449</v>
       </c>
       <c r="D5">
-        <v>0.0687930330092712</v>
+        <v>0.08641021565299667</v>
       </c>
       <c r="E5">
-        <v>0.1036090597136266</v>
+        <v>0.1159424916305056</v>
       </c>
       <c r="F5">
-        <v>1.658692319384286</v>
+        <v>1.403690558437617</v>
       </c>
       <c r="G5">
-        <v>0.0008451817313400111</v>
+        <v>0.04657501900926553</v>
       </c>
       <c r="H5">
-        <v>0.01358741162791266</v>
+        <v>0.007147019513351116</v>
       </c>
       <c r="I5">
-        <v>0.01766199441445604</v>
+        <v>0.007479095150200621</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8166518410109234</v>
+        <v>0.6350476536080549</v>
       </c>
       <c r="L5">
-        <v>0.1632982652323278</v>
+        <v>0.2924091288578694</v>
       </c>
       <c r="M5">
-        <v>1.237041090162279</v>
+        <v>0.1908838558065256</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1701808959060997</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.185610227839874</v>
       </c>
       <c r="P5">
-        <v>1.503780530659988</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.244338605188553</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9416859665866752</v>
+        <v>0.8447392964277185</v>
       </c>
       <c r="C6">
-        <v>0.2993541292802036</v>
+        <v>0.3361717466316065</v>
       </c>
       <c r="D6">
-        <v>0.06849946635627902</v>
+        <v>0.08600415050781152</v>
       </c>
       <c r="E6">
-        <v>0.1029492645207988</v>
+        <v>0.1152457723947578</v>
       </c>
       <c r="F6">
-        <v>1.651366406648307</v>
+        <v>1.397395833458276</v>
       </c>
       <c r="G6">
-        <v>0.000845381295346556</v>
+        <v>0.04694155863590543</v>
       </c>
       <c r="H6">
-        <v>0.01378267935277755</v>
+        <v>0.00726886985008901</v>
       </c>
       <c r="I6">
-        <v>0.01799844276394325</v>
+        <v>0.007721203964952572</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8135656167621832</v>
+        <v>0.6327016057698387</v>
       </c>
       <c r="L6">
-        <v>0.1621256723334454</v>
+        <v>0.2917291441876628</v>
       </c>
       <c r="M6">
-        <v>1.22787413243546</v>
+        <v>0.1899277094534213</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1690518374831882</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.176722978897232</v>
       </c>
       <c r="P6">
-        <v>1.502723064408954</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.243923847776585</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9866593856477266</v>
+        <v>0.8816558395896266</v>
       </c>
       <c r="C7">
-        <v>0.3132478815044806</v>
+        <v>0.3498791980305782</v>
       </c>
       <c r="D7">
-        <v>0.07197375316317078</v>
+        <v>0.09127736925542251</v>
       </c>
       <c r="E7">
-        <v>0.107996503679832</v>
+        <v>0.1208182428877258</v>
       </c>
       <c r="F7">
-        <v>1.685694572431174</v>
+        <v>1.417472555275211</v>
       </c>
       <c r="G7">
-        <v>0.0008440888308901743</v>
+        <v>0.04516706752434718</v>
       </c>
       <c r="H7">
-        <v>0.01252345302908703</v>
+        <v>0.006507413550044028</v>
       </c>
       <c r="I7">
-        <v>0.01673847965379327</v>
+        <v>0.007174400525270741</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8239172104640105</v>
+        <v>0.6355778010691751</v>
       </c>
       <c r="L7">
-        <v>0.1698136640639589</v>
+        <v>0.2906221503547926</v>
       </c>
       <c r="M7">
-        <v>1.286129291978199</v>
+        <v>0.1923806478211709</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1761890305639966</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.227241146292187</v>
       </c>
       <c r="P7">
-        <v>1.497970275819249</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.2329850041071</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.188100612111214</v>
+        <v>1.051953856805085</v>
       </c>
       <c r="C8">
-        <v>0.37428871413303</v>
+        <v>0.4166838362465342</v>
       </c>
       <c r="D8">
-        <v>0.08701773366519205</v>
+        <v>0.1123991686107786</v>
       </c>
       <c r="E8">
-        <v>0.1302313262609474</v>
+        <v>0.1447685389918085</v>
       </c>
       <c r="F8">
-        <v>1.843138782566598</v>
+        <v>1.529202677452886</v>
       </c>
       <c r="G8">
-        <v>0.000838557548804767</v>
+        <v>0.03769444690255863</v>
       </c>
       <c r="H8">
-        <v>0.00782510343658005</v>
+        <v>0.00369722879856349</v>
       </c>
       <c r="I8">
-        <v>0.0117153235472891</v>
+        <v>0.004875192453985377</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8730780495759802</v>
+        <v>0.6595229162056668</v>
       </c>
       <c r="L8">
-        <v>0.2039337113144413</v>
+        <v>0.290483888803017</v>
       </c>
       <c r="M8">
-        <v>1.545526848741417</v>
+        <v>0.2080465852504823</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2083237676579444</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.464021421691257</v>
       </c>
       <c r="P8">
-        <v>1.48095748858109</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.197867924423747</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.58891527491042</v>
+        <v>1.397343036322752</v>
       </c>
       <c r="C9">
-        <v>0.4959520884544304</v>
+        <v>0.5609065592562104</v>
       </c>
       <c r="D9">
-        <v>0.1163273132541605</v>
+        <v>0.1503630774636235</v>
       </c>
       <c r="E9">
-        <v>0.1741083356762445</v>
+        <v>0.1908255118219131</v>
       </c>
       <c r="F9">
-        <v>2.165970195910461</v>
+        <v>1.788880387151465</v>
       </c>
       <c r="G9">
-        <v>0.0008283508232928839</v>
+        <v>0.02345840961688594</v>
       </c>
       <c r="H9">
-        <v>0.002053382566320705</v>
+        <v>0.0005724812139229485</v>
       </c>
       <c r="I9">
-        <v>0.004767854273658223</v>
+        <v>0.001830157165179536</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9766317387701804</v>
+        <v>0.7252028711712413</v>
       </c>
       <c r="L9">
-        <v>0.2715795660025151</v>
+        <v>0.2966147133446029</v>
       </c>
       <c r="M9">
-        <v>2.06130338824201</v>
+        <v>0.2505637268407952</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2725712364700428</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.953203404333948</v>
       </c>
       <c r="P9">
-        <v>1.455659765197368</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.150539996031128</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.872364854167756</v>
+        <v>1.623809721585275</v>
       </c>
       <c r="C10">
-        <v>0.5824276747651709</v>
+        <v>0.6425559115002102</v>
       </c>
       <c r="D10">
-        <v>0.1348237311456302</v>
+        <v>0.1804110816018465</v>
       </c>
       <c r="E10">
-        <v>0.1981077497866863</v>
+        <v>0.2175473575754054</v>
       </c>
       <c r="F10">
-        <v>2.369606431205767</v>
+        <v>1.897536330188615</v>
       </c>
       <c r="G10">
-        <v>0.0008214311711929822</v>
+        <v>0.02412293616022509</v>
       </c>
       <c r="H10">
-        <v>0.000477448250250756</v>
+        <v>0.0001880157143023808</v>
       </c>
       <c r="I10">
-        <v>0.00221534174268001</v>
+        <v>0.001218994316087851</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.038482635088748</v>
+        <v>0.7385999167048283</v>
       </c>
       <c r="L10">
-        <v>0.3061848958389817</v>
+        <v>0.2876567919498783</v>
       </c>
       <c r="M10">
-        <v>2.426101882529082</v>
+        <v>0.2716019511044152</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3029330585579117</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.259686407668624</v>
       </c>
       <c r="P10">
-        <v>1.421352181739593</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.083153650506162</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.911239564183575</v>
+        <v>1.631727516526695</v>
       </c>
       <c r="C11">
-        <v>0.5640788859582528</v>
+        <v>0.5798081448458277</v>
       </c>
       <c r="D11">
-        <v>0.1128274244790362</v>
+        <v>0.1657599412174307</v>
       </c>
       <c r="E11">
-        <v>0.1397010578977138</v>
+        <v>0.1589491372055534</v>
       </c>
       <c r="F11">
-        <v>2.157240254226323</v>
+        <v>1.617406103964015</v>
       </c>
       <c r="G11">
-        <v>0.0008198489350834332</v>
+        <v>0.05817866326406929</v>
       </c>
       <c r="H11">
-        <v>0.01904993581581849</v>
+        <v>0.01876230326739048</v>
       </c>
       <c r="I11">
-        <v>0.002353998729036633</v>
+        <v>0.001812547868762948</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9477060928794856</v>
+        <v>0.625851288000483</v>
       </c>
       <c r="L11">
-        <v>0.2016553937936081</v>
+        <v>0.2421977769293662</v>
       </c>
       <c r="M11">
-        <v>2.439998863596657</v>
+        <v>0.2336659185148164</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1967725699836294</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.197882545523953</v>
       </c>
       <c r="P11">
-        <v>1.279975170783501</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.9561916350805788</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.888798437177826</v>
+        <v>1.60535565723282</v>
       </c>
       <c r="C12">
-        <v>0.5283578199230874</v>
+        <v>0.5218149227661684</v>
       </c>
       <c r="D12">
-        <v>0.09161976573760455</v>
+        <v>0.1437159055624022</v>
       </c>
       <c r="E12">
-        <v>0.09446928363845686</v>
+        <v>0.1114977740416911</v>
       </c>
       <c r="F12">
-        <v>1.950953654214075</v>
+        <v>1.410308190761569</v>
       </c>
       <c r="G12">
-        <v>0.0008198158487729944</v>
+        <v>0.08321538053805</v>
       </c>
       <c r="H12">
-        <v>0.05785324917658841</v>
+        <v>0.05747263704444805</v>
       </c>
       <c r="I12">
-        <v>0.002347587085184344</v>
+        <v>0.001822379569175858</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8666669471651929</v>
+        <v>0.5519493334342087</v>
       </c>
       <c r="L12">
-        <v>0.1267766626152351</v>
+        <v>0.2148390788083212</v>
       </c>
       <c r="M12">
-        <v>2.375948029030354</v>
+        <v>0.2060263685863362</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1229415939715821</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.106715125323632</v>
       </c>
       <c r="P12">
-        <v>1.185046845312307</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8977641143718049</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.812390099708864</v>
+        <v>1.553057056695792</v>
       </c>
       <c r="C13">
-        <v>0.479564964932365</v>
+        <v>0.471884260116866</v>
       </c>
       <c r="D13">
-        <v>0.07067172745734496</v>
+        <v>0.1144267602934548</v>
       </c>
       <c r="E13">
-        <v>0.05725350513055716</v>
+        <v>0.07049384897786481</v>
       </c>
       <c r="F13">
-        <v>1.730009981275018</v>
+        <v>1.250295317111096</v>
       </c>
       <c r="G13">
-        <v>0.0008210081182938866</v>
+        <v>0.07836551315438811</v>
       </c>
       <c r="H13">
-        <v>0.1139055063970176</v>
+        <v>0.1133140264832662</v>
       </c>
       <c r="I13">
-        <v>0.002618825317854956</v>
+        <v>0.001842226023191174</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7831035158641342</v>
+        <v>0.5028694247254037</v>
       </c>
       <c r="L13">
-        <v>0.07050991166863696</v>
+        <v>0.1983630458182333</v>
       </c>
       <c r="M13">
-        <v>2.245934491791957</v>
+        <v>0.1854307312456527</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06938566572291904</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.999379218132447</v>
       </c>
       <c r="P13">
-        <v>1.113924064138665</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.876291528448693</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.733873408893629</v>
+        <v>1.50338544876027</v>
       </c>
       <c r="C14">
-        <v>0.4403272296719649</v>
+        <v>0.4399205636834154</v>
       </c>
       <c r="D14">
-        <v>0.0566471713944523</v>
+        <v>0.09215059153558514</v>
       </c>
       <c r="E14">
-        <v>0.03635284763659463</v>
+        <v>0.04668048163291516</v>
       </c>
       <c r="F14">
-        <v>1.569970418605322</v>
+        <v>1.155008599674318</v>
       </c>
       <c r="G14">
-        <v>0.0008223943748582364</v>
+        <v>0.06259860644519577</v>
       </c>
       <c r="H14">
-        <v>0.1635881633981029</v>
+        <v>0.1627703365006994</v>
       </c>
       <c r="I14">
-        <v>0.003074664544490346</v>
+        <v>0.001982289524675274</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7235251643708267</v>
+        <v>0.4772352808942912</v>
       </c>
       <c r="L14">
-        <v>0.04259747496460875</v>
+        <v>0.1906091547639619</v>
       </c>
       <c r="M14">
-        <v>2.1254629250883</v>
+        <v>0.1734754388725115</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04362842720673044</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.915266994631679</v>
       </c>
       <c r="P14">
-        <v>1.075766838543018</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.873507817236288</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.702160517411386</v>
+        <v>1.484004367841607</v>
       </c>
       <c r="C15">
-        <v>0.4285128351113769</v>
+        <v>0.4331501147783854</v>
       </c>
       <c r="D15">
-        <v>0.05318217018843541</v>
+        <v>0.08569211083478478</v>
       </c>
       <c r="E15">
-        <v>0.03183510664928413</v>
+        <v>0.04135350246883185</v>
       </c>
       <c r="F15">
-        <v>1.525639562818768</v>
+        <v>1.136167322841601</v>
       </c>
       <c r="G15">
-        <v>0.0008230171682031897</v>
+        <v>0.05450606466029484</v>
       </c>
       <c r="H15">
-        <v>0.1762558169740629</v>
+        <v>0.1753311668629038</v>
       </c>
       <c r="I15">
-        <v>0.003402571120721731</v>
+        <v>0.00217295847551302</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7071351322058987</v>
+        <v>0.4736147020960999</v>
       </c>
       <c r="L15">
-        <v>0.03717590993851516</v>
+        <v>0.1899709900605764</v>
       </c>
       <c r="M15">
-        <v>2.081860768844592</v>
+        <v>0.1711415109411014</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03884749702509005</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.889282989971747</v>
       </c>
       <c r="P15">
-        <v>1.069315529587342</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8764862155302569</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.595457305996916</v>
+        <v>1.421261113159574</v>
       </c>
       <c r="C16">
-        <v>0.4030664474327921</v>
+        <v>0.4351278310417968</v>
       </c>
       <c r="D16">
-        <v>0.05041787347888516</v>
+        <v>0.07404555263147472</v>
       </c>
       <c r="E16">
-        <v>0.03055970444907885</v>
+        <v>0.03892162201289828</v>
       </c>
       <c r="F16">
-        <v>1.484647772726632</v>
+        <v>1.178604988544095</v>
       </c>
       <c r="G16">
-        <v>0.0008257276727689098</v>
+        <v>0.02755430279352922</v>
       </c>
       <c r="H16">
-        <v>0.164327947433307</v>
+        <v>0.1628554697779805</v>
       </c>
       <c r="I16">
-        <v>0.004533096296158945</v>
+        <v>0.002546870306796123</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6968829147129938</v>
+        <v>0.5013032625859353</v>
       </c>
       <c r="L16">
-        <v>0.03596348342893307</v>
+        <v>0.2032579457171835</v>
       </c>
       <c r="M16">
-        <v>1.953450223475528</v>
+        <v>0.1774003616569786</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03905455039709516</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.833850423269553</v>
       </c>
       <c r="P16">
-        <v>1.095662229952072</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9122212431673482</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.555028977068218</v>
+        <v>1.395166525026525</v>
       </c>
       <c r="C17">
-        <v>0.4042686276505378</v>
+        <v>0.4501854580782663</v>
       </c>
       <c r="D17">
-        <v>0.05546904379270501</v>
+        <v>0.07697058040943006</v>
       </c>
       <c r="E17">
-        <v>0.03960291384239945</v>
+        <v>0.04836565171364526</v>
       </c>
       <c r="F17">
-        <v>1.536533986903933</v>
+        <v>1.255171025870823</v>
       </c>
       <c r="G17">
-        <v>0.0008270827047556062</v>
+        <v>0.02226819011989534</v>
       </c>
       <c r="H17">
-        <v>0.12700228504535</v>
+        <v>0.1252236100046105</v>
       </c>
       <c r="I17">
-        <v>0.00520537354980366</v>
+        <v>0.002799462264047925</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7200338667251813</v>
+        <v>0.5335871839405826</v>
       </c>
       <c r="L17">
-        <v>0.04762113546025049</v>
+        <v>0.217225050296797</v>
       </c>
       <c r="M17">
-        <v>1.918541061269394</v>
+        <v>0.1870562952765162</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05103038289416872</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.827317856644527</v>
       </c>
       <c r="P17">
-        <v>1.135256645654039</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9450756830847684</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.569545240527361</v>
+        <v>1.406411517828047</v>
       </c>
       <c r="C18">
-        <v>0.4277576660525995</v>
+        <v>0.4841298684997923</v>
       </c>
       <c r="D18">
-        <v>0.06860001751891787</v>
+        <v>0.09164986586961277</v>
       </c>
       <c r="E18">
-        <v>0.06318838237951141</v>
+        <v>0.07344220042396188</v>
       </c>
       <c r="F18">
-        <v>1.682529432012501</v>
+        <v>1.39256088668273</v>
       </c>
       <c r="G18">
-        <v>0.0008273387343260711</v>
+        <v>0.02081019166138853</v>
       </c>
       <c r="H18">
-        <v>0.07414818728778272</v>
+        <v>0.07235132889667284</v>
       </c>
       <c r="I18">
-        <v>0.005085573403224686</v>
+        <v>0.002553425938346621</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7788278783878226</v>
+        <v>0.5834984302558155</v>
       </c>
       <c r="L18">
-        <v>0.08185584892094511</v>
+        <v>0.2368847215754002</v>
       </c>
       <c r="M18">
-        <v>1.961103234577081</v>
+        <v>0.2045922856898947</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08494176435020506</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.876934248822579</v>
       </c>
       <c r="P18">
-        <v>1.198503854862039</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.9871470522528263</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.620688664267874</v>
+        <v>1.443548938397043</v>
       </c>
       <c r="C19">
-        <v>0.4707399645181454</v>
+        <v>0.5369324468338732</v>
       </c>
       <c r="D19">
-        <v>0.0896613576958174</v>
+        <v>0.1167826207739466</v>
       </c>
       <c r="E19">
-        <v>0.1041856475428311</v>
+        <v>0.1167644133183821</v>
       </c>
       <c r="F19">
-        <v>1.894080750474743</v>
+        <v>1.574898530708282</v>
       </c>
       <c r="G19">
-        <v>0.0008266516825462283</v>
+        <v>0.01964705821750368</v>
       </c>
       <c r="H19">
-        <v>0.02836006131153113</v>
+        <v>0.02684486022096166</v>
       </c>
       <c r="I19">
-        <v>0.004883360108718371</v>
+        <v>0.002581765005414738</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8599587261140584</v>
+        <v>0.6446249143354024</v>
       </c>
       <c r="L19">
-        <v>0.1471246171387577</v>
+        <v>0.2598454800037224</v>
       </c>
       <c r="M19">
-        <v>2.060490644701133</v>
+        <v>0.2274935653368999</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1493464445226493</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.971376222168004</v>
       </c>
       <c r="P19">
-        <v>1.280695713764715</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.038211238854775</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.786101079407757</v>
+        <v>1.564335740897008</v>
       </c>
       <c r="C20">
-        <v>0.563480309898523</v>
+        <v>0.6369548825053641</v>
       </c>
       <c r="D20">
-        <v>0.131223972035059</v>
+        <v>0.1702580201773713</v>
       </c>
       <c r="E20">
-        <v>0.1918671856867533</v>
+        <v>0.2095506567245451</v>
       </c>
       <c r="F20">
-        <v>2.298128435462885</v>
+        <v>1.885428654899002</v>
       </c>
       <c r="G20">
-        <v>0.0008233016450475812</v>
+        <v>0.01851998003872346</v>
       </c>
       <c r="H20">
-        <v>0.0007265227390393925</v>
+        <v>0.0001607633052986834</v>
       </c>
       <c r="I20">
-        <v>0.003582398845942691</v>
+        <v>0.002243247327519349</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.010799978890155</v>
+        <v>0.7404029119762185</v>
       </c>
       <c r="L20">
-        <v>0.2959499203279847</v>
+        <v>0.2918813464828105</v>
       </c>
       <c r="M20">
-        <v>2.323762638662117</v>
+        <v>0.2680343182978788</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2948761626961272</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.196293745271305</v>
       </c>
       <c r="P20">
-        <v>1.418481676947792</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.106619229269782</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.021167442477804</v>
+        <v>1.696783770873083</v>
       </c>
       <c r="C21">
-        <v>0.6411031294385054</v>
+        <v>0.6491330394577517</v>
       </c>
       <c r="D21">
-        <v>0.1511282268172067</v>
+        <v>0.2204287833793899</v>
       </c>
       <c r="E21">
-        <v>0.2240210306630317</v>
+        <v>0.2501227248836599</v>
       </c>
       <c r="F21">
-        <v>2.51374959801457</v>
+        <v>1.852777329883466</v>
       </c>
       <c r="G21">
-        <v>0.0008178157987217549</v>
+        <v>0.07800834207604623</v>
       </c>
       <c r="H21">
-        <v>5.962470974729683E-07</v>
+        <v>0.0001237425989617513</v>
       </c>
       <c r="I21">
-        <v>0.002166322909350704</v>
+        <v>0.002033868883738243</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.081757444421982</v>
+        <v>0.6944440973086827</v>
       </c>
       <c r="L21">
-        <v>0.3469189390056471</v>
+        <v>0.2656504801458865</v>
       </c>
       <c r="M21">
-        <v>2.633067414899813</v>
+        <v>0.2620856718768323</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3367131212219761</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.336769442883167</v>
       </c>
       <c r="P21">
-        <v>1.418379908823653</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>1.005075372393868</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.175060900400695</v>
+        <v>1.778611664357129</v>
       </c>
       <c r="C22">
-        <v>0.6873381357819426</v>
+        <v>0.6474909480660074</v>
       </c>
       <c r="D22">
-        <v>0.1617336686785364</v>
+        <v>0.2533157488948206</v>
       </c>
       <c r="E22">
-        <v>0.2405061099147616</v>
+        <v>0.2725925214540581</v>
       </c>
       <c r="F22">
-        <v>2.644857217252863</v>
+        <v>1.812041346392405</v>
       </c>
       <c r="G22">
-        <v>0.0008143556108488731</v>
+        <v>0.1656272685976887</v>
       </c>
       <c r="H22">
-        <v>0.0001904088283688488</v>
+        <v>0.0004731494950780402</v>
       </c>
       <c r="I22">
-        <v>0.001476238574658062</v>
+        <v>0.001730421542940341</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.126142449540865</v>
+        <v>0.6594722662687644</v>
       </c>
       <c r="L22">
-        <v>0.3727073586472898</v>
+        <v>0.2477235141150693</v>
       </c>
       <c r="M22">
-        <v>2.830073171509582</v>
+        <v>0.2557241486386914</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3560732620681222</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.412744851818559</v>
       </c>
       <c r="P22">
-        <v>1.41559721652726</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.9404182607258313</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.097239970052556</v>
+        <v>1.74620577078781</v>
       </c>
       <c r="C23">
-        <v>0.6609378085258015</v>
+        <v>0.6552639347544016</v>
       </c>
       <c r="D23">
-        <v>0.1555057077577544</v>
+        <v>0.2320359984763911</v>
       </c>
       <c r="E23">
-        <v>0.231516279789389</v>
+        <v>0.2595559103773155</v>
       </c>
       <c r="F23">
-        <v>2.58095006075672</v>
+        <v>1.860698611936044</v>
       </c>
       <c r="G23">
-        <v>0.0008161709649685257</v>
+        <v>0.1003421496106967</v>
       </c>
       <c r="H23">
-        <v>3.758036251877428E-05</v>
+        <v>0.0002692724176265315</v>
       </c>
       <c r="I23">
-        <v>0.001476800167460546</v>
+        <v>0.001502574121382771</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.10652994500402</v>
+        <v>0.6905544269752468</v>
       </c>
       <c r="L23">
-        <v>0.3591067880693259</v>
+        <v>0.2614535216434746</v>
       </c>
       <c r="M23">
-        <v>2.726932260407494</v>
+        <v>0.2642470741021725</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.346625332286024</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.39067120047298</v>
       </c>
       <c r="P23">
-        <v>1.421257343900422</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.9843010646455923</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.796476029536308</v>
+        <v>1.573006792123266</v>
       </c>
       <c r="C24">
-        <v>0.5652713330372876</v>
+        <v>0.6402332945359035</v>
       </c>
       <c r="D24">
-        <v>0.1330375789837888</v>
+        <v>0.1723402087309864</v>
       </c>
       <c r="E24">
-        <v>0.1980474897890616</v>
+        <v>0.2159764675925899</v>
       </c>
       <c r="F24">
-        <v>2.331778111412945</v>
+        <v>1.915561807645773</v>
       </c>
       <c r="G24">
-        <v>0.0008232106175989747</v>
+        <v>0.01820915692836866</v>
       </c>
       <c r="H24">
-        <v>0.0005556715925609801</v>
+        <v>2.999541828652141E-05</v>
       </c>
       <c r="I24">
-        <v>0.003030625963475586</v>
+        <v>0.001628838216845452</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.026535761518318</v>
+        <v>0.7530547974548014</v>
       </c>
       <c r="L24">
-        <v>0.3077039556162759</v>
+        <v>0.2966448633188961</v>
       </c>
       <c r="M24">
-        <v>2.335519938874086</v>
+        <v>0.2727571454702087</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3065233267824823</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.208197538233236</v>
       </c>
       <c r="P24">
-        <v>1.436853202051196</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.119385171215924</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.47392620757725</v>
+        <v>1.302491443777001</v>
       </c>
       <c r="C25">
-        <v>0.4649733966320753</v>
+        <v>0.5286548326061791</v>
       </c>
       <c r="D25">
-        <v>0.1091558793298759</v>
+        <v>0.1394913930052155</v>
       </c>
       <c r="E25">
-        <v>0.162431932860656</v>
+        <v>0.1781703270663328</v>
       </c>
       <c r="F25">
-        <v>2.068546550628724</v>
+        <v>1.72308832298458</v>
       </c>
       <c r="G25">
-        <v>0.0008310842044975756</v>
+        <v>0.02562310566488124</v>
       </c>
       <c r="H25">
-        <v>0.003228278177467292</v>
+        <v>0.001124973119668971</v>
       </c>
       <c r="I25">
-        <v>0.00675365090811475</v>
+        <v>0.002942021730130584</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9421802727413606</v>
+        <v>0.7082990864398298</v>
       </c>
       <c r="L25">
-        <v>0.2529327056395658</v>
+        <v>0.2954631798769469</v>
       </c>
       <c r="M25">
-        <v>1.918014407489494</v>
+        <v>0.2387573684570086</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2553188070696564</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.826833691895558</v>
       </c>
       <c r="P25">
-        <v>1.455700362926642</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.164646705994997</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
